--- a/Demo/Config/技能.xlsx
+++ b/Demo/Config/技能.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="s_skil" sheetId="1" r:id="rId1"/>
+    <sheet name="设计原因" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -688,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -934,4 +935,20 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Demo/Config/技能.xlsx
+++ b/Demo/Config/技能.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="s_skil" sheetId="1" r:id="rId1"/>
-    <sheet name="设计原因" sheetId="2" r:id="rId2"/>
+    <sheet name="战斗逻辑" sheetId="3" r:id="rId1"/>
+    <sheet name="技能表" sheetId="1" r:id="rId2"/>
+    <sheet name="说明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,13 +26,14 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1-3位
@@ -45,7 +47,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0.不影响
+1.影响</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0">
+    <comment ref="S4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
   <si>
     <t>阵营</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,14 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.1+0.1+0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25+0.3+0.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,14 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>效果序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,14 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,23 +232,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怒气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>camp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -325,14 +302,258 @@
   <si>
     <t xml:space="preserve">
 script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速影响么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6+0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25+0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能有两类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能释放优先级大于普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放产生能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放消耗能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能释放顺序按照调整的技能释放顺序依次、循环释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被打断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即停止本次技能，认定本次技能释放成功，执行下一技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要避免普攻被打断能量收益反而更高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量计算顺序应分成两部在两个位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我们是以时间轴前进不是以回合（流血在回合一开始先执行），存在正在释放技能，目标被打死的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在第一次伤害触发点，前端确认目标是否存货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选技能，选目标，执行效果，循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照时间轴推进战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击-防御</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,14 +575,8 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,12 +597,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -395,17 +622,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,247 +940,680 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43:N60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C25" s="12"/>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="I43">
+        <v>200</v>
+      </c>
+      <c r="K43">
+        <f>$G$43-I43</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>250</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ref="K44:K59" si="0">$G$43-I44</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <f>G43*9/10</f>
+        <v>900</v>
+      </c>
+      <c r="I45">
+        <v>300</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>350</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>400</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>450</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>500</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>550</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>600</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>650</v>
+      </c>
+      <c r="K52">
+        <f>$G$43-I52</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>700</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>750</v>
+      </c>
+      <c r="K54">
+        <f>$G$43-I54</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>800</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>850</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>900</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>950</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>1000</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B7:B8 B12:B13 B24 B28" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V5"/>
+  <dimension ref="B3:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" customWidth="1"/>
+    <col min="20" max="20" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B6" t="str">
+        <f>D6&amp;IF(E6&lt;10,0&amp;E6,E6)</f>
+        <v>100101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>1001</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1.2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1.2</v>
+      </c>
+      <c r="O6">
+        <v>1000</v>
+      </c>
+      <c r="P6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="U6" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B5" t="str">
-        <f>C5&amp;D5&amp;IF(E5&lt;10,0&amp;E5,E5)</f>
-        <v>1000101</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1.2</v>
-      </c>
-      <c r="M5">
-        <v>1000</v>
-      </c>
-      <c r="N5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -937,12 +1624,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
